--- a/public/excel/indices.xlsx
+++ b/public/excel/indices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario.Usuario-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario.Usuario-PC\Desktop\adozapp\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Nombre Del Pdf </t>
+    <t xml:space="preserve">Fecha </t>
   </si>
   <si>
-    <t>Titulo De Ordenanza</t>
+    <t>Titulo Ordenanza</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha </t>
+    <t>Numero De Ordenanza</t>
   </si>
 </sst>
 </file>
@@ -41,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -88,7 +88,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -408,7 +408,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,13 +419,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
